--- a/recipes/test3.xlsx
+++ b/recipes/test3.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Закрыть клапан насоса</t>
+          <t>Пауза</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -478,16 +478,8 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Открыть клапан</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C_2</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -496,57 +488,21 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Значение на РРГ с паузой</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N_2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0030:02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>kuda ti</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Стабилизировать давление</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1e-4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0000:00</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ewrr</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
